--- a/EntityTest/perftest.xlsx
+++ b/EntityTest/perftest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lobedama\Meins\Source\EntityTest\EntityTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B19AA35B-DEEC-4BBD-B270-AA071A5865BF}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88699E1C-E7F6-4F43-9BCC-1BBEA08211E5}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -220,6 +220,9 @@
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -233,9 +236,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -561,100 +561,100 @@
     <col min="1" max="1" width="10.5703125" customWidth="1"/>
     <col min="2" max="2" width="39.5703125" customWidth="1"/>
     <col min="3" max="6" width="10.5703125" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="1"/>
+    <col min="7" max="7" width="11.42578125" style="2"/>
     <col min="8" max="1025" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="I2" s="12" t="s">
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="I2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="O2" s="12" t="s">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="O2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="4">
         <v>157.7619</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="5">
         <v>162.51060000000001</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="5">
         <v>166.42259999999999</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="5">
         <v>168.07169999999999</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="6">
         <f>AVERAGE(C5:F5)</f>
         <v>163.6917</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="4">
         <v>160.5342</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="5">
         <v>180.1678</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="5">
         <v>163.33320000000001</v>
       </c>
-      <c r="L5" s="4"/>
-      <c r="M5" s="5">
+      <c r="L5" s="5"/>
+      <c r="M5" s="6">
         <f>AVERAGE(I5:L5)</f>
         <v>168.01173333333335</v>
       </c>
-      <c r="O5" s="3">
+      <c r="O5" s="4">
         <v>166.5318</v>
       </c>
-      <c r="P5" s="4">
+      <c r="P5" s="5">
         <v>175.91</v>
       </c>
-      <c r="Q5" s="4">
+      <c r="Q5" s="5">
         <v>170.76769999999999</v>
       </c>
-      <c r="R5" s="4">
+      <c r="R5" s="5">
         <v>166.7098</v>
       </c>
-      <c r="S5" s="5">
+      <c r="S5" s="6">
         <f>AVERAGE(O5:R5)</f>
         <v>169.97982499999998</v>
       </c>
@@ -663,49 +663,49 @@
       <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="7">
         <v>1.4040999999999999</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="8">
         <v>1.3934</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="8">
         <v>1.4028</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="8">
         <v>1.3969</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="9">
         <f>AVERAGE(C6:F6)</f>
         <v>1.3993000000000002</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="7">
         <v>1.7139</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="8">
         <v>1.9403999999999999</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="8">
         <v>1.8997999999999999</v>
       </c>
-      <c r="L6" s="7"/>
-      <c r="M6" s="8">
+      <c r="L6" s="8"/>
+      <c r="M6" s="9">
         <f>AVERAGE(I6:L6)</f>
         <v>1.8513666666666666</v>
       </c>
-      <c r="O6" s="6">
+      <c r="O6" s="7">
         <v>1.3107</v>
       </c>
-      <c r="P6" s="7">
+      <c r="P6" s="8">
         <v>2.1427</v>
       </c>
-      <c r="Q6" s="7">
+      <c r="Q6" s="8">
         <v>1.3743000000000001</v>
       </c>
-      <c r="R6" s="7">
+      <c r="R6" s="8">
         <v>1.2334000000000001</v>
       </c>
-      <c r="S6" s="8">
+      <c r="S6" s="9">
         <f>AVERAGE(O6:R6)</f>
         <v>1.5152749999999999</v>
       </c>
@@ -714,49 +714,49 @@
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="7">
         <v>3.4948000000000001</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="8">
         <v>3.1926999999999999</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="8">
         <v>3.13</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="8">
         <v>3.6112000000000002</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="9">
         <f>AVERAGE(C7:F7)</f>
         <v>3.3571749999999998</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="7">
         <v>3.4422999999999999</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="8">
         <v>4.0140000000000002</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="8">
         <v>4.2487000000000004</v>
       </c>
-      <c r="L7" s="7"/>
-      <c r="M7" s="8">
+      <c r="L7" s="8"/>
+      <c r="M7" s="9">
         <f>AVERAGE(I7:L7)</f>
         <v>3.9016666666666673</v>
       </c>
-      <c r="O7" s="6">
+      <c r="O7" s="7">
         <v>2.9794</v>
       </c>
-      <c r="P7" s="7">
+      <c r="P7" s="8">
         <v>3.2784</v>
       </c>
-      <c r="Q7" s="7">
+      <c r="Q7" s="8">
         <v>3.1785999999999999</v>
       </c>
-      <c r="R7" s="7">
+      <c r="R7" s="8">
         <v>3.3523999999999998</v>
       </c>
-      <c r="S7" s="8">
+      <c r="S7" s="9">
         <f>AVERAGE(O7:R7)</f>
         <v>3.1971999999999996</v>
       </c>
@@ -765,49 +765,49 @@
       <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="7">
         <v>113.1241</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="8">
         <v>114.1404</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="8">
         <v>111.9285</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="8">
         <v>114.68429999999999</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="9">
         <f>AVERAGE(C8:F8)</f>
         <v>113.469325</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="7">
         <v>154.3081</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="8">
         <v>144.96809999999999</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K8" s="8">
         <v>148.25040000000001</v>
       </c>
-      <c r="L8" s="7"/>
-      <c r="M8" s="8">
+      <c r="L8" s="8"/>
+      <c r="M8" s="9">
         <f>AVERAGE(I8:L8)</f>
         <v>149.17553333333333</v>
       </c>
-      <c r="O8" s="6">
+      <c r="O8" s="7">
         <v>102.8647</v>
       </c>
-      <c r="P8" s="7">
+      <c r="P8" s="8">
         <v>104.4657</v>
       </c>
-      <c r="Q8" s="7">
+      <c r="Q8" s="8">
         <v>102.005</v>
       </c>
-      <c r="R8" s="7">
+      <c r="R8" s="8">
         <v>104.4804</v>
       </c>
-      <c r="S8" s="8">
+      <c r="S8" s="9">
         <f>AVERAGE(O8:R8)</f>
         <v>103.45394999999999</v>
       </c>
@@ -816,105 +816,105 @@
       <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="10">
         <v>390.39330000000001</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="11">
         <v>383.66489999999999</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="11">
         <v>394.25279999999998</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="11">
         <v>374.78480000000002</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="12">
         <f>AVERAGE(C9:F9)</f>
         <v>385.77395000000001</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="10">
         <v>465.13940000000002</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J9" s="11">
         <v>466.0222</v>
       </c>
-      <c r="K9" s="10">
+      <c r="K9" s="11">
         <v>467.14600000000002</v>
       </c>
-      <c r="L9" s="10"/>
-      <c r="M9" s="11">
+      <c r="L9" s="11"/>
+      <c r="M9" s="12">
         <f>AVERAGE(I9:L9)</f>
         <v>466.10253333333338</v>
       </c>
-      <c r="O9" s="9">
+      <c r="O9" s="10">
         <v>304.68599999999998</v>
       </c>
-      <c r="P9" s="10">
+      <c r="P9" s="11">
         <v>302.75659999999999</v>
       </c>
-      <c r="Q9" s="10">
+      <c r="Q9" s="11">
         <v>302.67930000000001</v>
       </c>
-      <c r="R9" s="10">
+      <c r="R9" s="11">
         <v>308.26870000000002</v>
       </c>
-      <c r="S9" s="11">
+      <c r="S9" s="12">
         <f>AVERAGE(O9:R9)</f>
         <v>304.59764999999999</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="4">
         <v>5.3160999999999996</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="5">
         <v>4.4263000000000003</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="5">
         <v>4.0811000000000002</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="5">
         <v>4.718</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="6">
         <f>AVERAGE(C12:F12)</f>
         <v>4.6353749999999998</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="4">
         <v>3.3616000000000001</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="5">
         <v>3.403</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="5">
         <v>4.7798999999999996</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L12" s="5">
         <v>3.9466000000000001</v>
       </c>
-      <c r="M12" s="5">
+      <c r="M12" s="6">
         <f>AVERAGE(I12:L12)</f>
         <v>3.8727749999999999</v>
       </c>
-      <c r="O12" s="3">
+      <c r="O12" s="4">
         <v>2.8919000000000001</v>
       </c>
-      <c r="P12" s="4">
+      <c r="P12" s="5">
         <v>15.2219</v>
       </c>
-      <c r="Q12" s="4">
+      <c r="Q12" s="5">
         <v>3.6556999999999999</v>
       </c>
-      <c r="R12" s="4">
+      <c r="R12" s="5">
         <v>7.53</v>
       </c>
-      <c r="S12" s="5">
+      <c r="S12" s="6">
         <f>AVERAGE(O12:R12)</f>
         <v>7.3248750000000005</v>
       </c>
@@ -923,51 +923,51 @@
       <c r="B13" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="7">
         <v>5.5999999999999999E-3</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="8">
         <v>5.1000000000000004E-3</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="8">
         <v>4.7000000000000002E-3</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="8">
         <v>5.5999999999999999E-3</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="9">
         <f>AVERAGE(C13:F13)</f>
         <v>5.2500000000000003E-3</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="7">
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="J13" s="7">
+      <c r="J13" s="8">
         <v>4.7000000000000002E-3</v>
       </c>
-      <c r="K13" s="7">
+      <c r="K13" s="8">
         <v>4.7000000000000002E-3</v>
       </c>
-      <c r="L13" s="7">
+      <c r="L13" s="8">
         <v>4.7000000000000002E-3</v>
       </c>
-      <c r="M13" s="8">
+      <c r="M13" s="9">
         <f>AVERAGE(I13:L13)</f>
         <v>4.8249999999999994E-3</v>
       </c>
-      <c r="O13" s="6">
+      <c r="O13" s="7">
         <v>0</v>
       </c>
-      <c r="P13" s="7">
+      <c r="P13" s="8">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="Q13" s="7">
+      <c r="Q13" s="8">
         <v>0</v>
       </c>
-      <c r="R13" s="7">
+      <c r="R13" s="8">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="S13" s="8">
+      <c r="S13" s="9">
         <f>AVERAGE(O13:R13)</f>
         <v>3.2499999999999999E-4</v>
       </c>
@@ -976,51 +976,51 @@
       <c r="B14" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="7">
         <v>2.3099999999999999E-2</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="8">
         <v>2.35E-2</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="8">
         <v>2.2700000000000001E-2</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="8">
         <v>2.2599999999999999E-2</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="9">
         <f>AVERAGE(C14:F14)</f>
         <v>2.2974999999999999E-2</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="7">
         <v>1.84E-2</v>
       </c>
-      <c r="J14" s="7">
+      <c r="J14" s="8">
         <v>2.0500000000000001E-2</v>
       </c>
-      <c r="K14" s="7">
+      <c r="K14" s="8">
         <v>1.9199999999999998E-2</v>
       </c>
-      <c r="L14" s="7">
+      <c r="L14" s="8">
         <v>1.9199999999999998E-2</v>
       </c>
-      <c r="M14" s="8">
+      <c r="M14" s="9">
         <f>AVERAGE(I14:L14)</f>
         <v>1.9324999999999998E-2</v>
       </c>
-      <c r="O14" s="6">
+      <c r="O14" s="7">
         <v>1.24E-2</v>
       </c>
-      <c r="P14" s="7">
+      <c r="P14" s="8">
         <v>3.2500000000000001E-2</v>
       </c>
-      <c r="Q14" s="7">
+      <c r="Q14" s="8">
         <v>2.2200000000000001E-2</v>
       </c>
-      <c r="R14" s="7">
+      <c r="R14" s="8">
         <v>2.01E-2</v>
       </c>
-      <c r="S14" s="8">
+      <c r="S14" s="9">
         <f>AVERAGE(O14:R14)</f>
         <v>2.18E-2</v>
       </c>
@@ -1029,51 +1029,51 @@
       <c r="B15" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="7">
         <v>0.87719999999999998</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="8">
         <v>1.1323000000000001</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="8">
         <v>1.0965</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="8">
         <v>1.1067</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="9">
         <f>AVERAGE(C15:F15)</f>
         <v>1.053175</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I15" s="7">
         <v>1.4480999999999999</v>
       </c>
-      <c r="J15" s="7">
+      <c r="J15" s="8">
         <v>1.3515999999999999</v>
       </c>
-      <c r="K15" s="7">
+      <c r="K15" s="8">
         <v>1.4434</v>
       </c>
-      <c r="L15" s="7">
+      <c r="L15" s="8">
         <v>1.2049000000000001</v>
       </c>
-      <c r="M15" s="8">
+      <c r="M15" s="9">
         <f>AVERAGE(I15:L15)</f>
         <v>1.3620000000000001</v>
       </c>
-      <c r="O15" s="6">
+      <c r="O15" s="7">
         <v>0.32850000000000001</v>
       </c>
-      <c r="P15" s="7">
+      <c r="P15" s="8">
         <v>1.0549999999999999</v>
       </c>
-      <c r="Q15" s="7">
+      <c r="Q15" s="8">
         <v>0.4002</v>
       </c>
-      <c r="R15" s="7">
+      <c r="R15" s="8">
         <v>0.73119999999999996</v>
       </c>
-      <c r="S15" s="8">
+      <c r="S15" s="9">
         <f>AVERAGE(O15:R15)</f>
         <v>0.62872499999999998</v>
       </c>
@@ -1082,51 +1082,51 @@
       <c r="B16" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="10">
         <v>3.4116</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="11">
         <v>3.31</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="11">
         <v>2.6295000000000002</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="11">
         <v>3.6781999999999999</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16" s="12">
         <f>AVERAGE(C16:F16)</f>
         <v>3.2573250000000002</v>
       </c>
-      <c r="I16" s="9">
+      <c r="I16" s="10">
         <v>3.4986000000000002</v>
       </c>
-      <c r="J16" s="10">
+      <c r="J16" s="11">
         <v>2.2847</v>
       </c>
-      <c r="K16" s="10">
+      <c r="K16" s="11">
         <v>2.3380999999999998</v>
       </c>
-      <c r="L16" s="10">
+      <c r="L16" s="11">
         <v>3.9249000000000001</v>
       </c>
-      <c r="M16" s="11">
+      <c r="M16" s="12">
         <f>AVERAGE(I16:L16)</f>
         <v>3.0115750000000006</v>
       </c>
-      <c r="O16" s="9">
+      <c r="O16" s="10">
         <v>0.98850000000000005</v>
       </c>
-      <c r="P16" s="10">
+      <c r="P16" s="11">
         <v>1.5653999999999999</v>
       </c>
-      <c r="Q16" s="10">
+      <c r="Q16" s="11">
         <v>1.1186</v>
       </c>
-      <c r="R16" s="10">
+      <c r="R16" s="11">
         <v>1.0674999999999999</v>
       </c>
-      <c r="S16" s="11">
+      <c r="S16" s="12">
         <f>AVERAGE(O16:R16)</f>
         <v>1.1850000000000001</v>
       </c>
@@ -1155,71 +1155,71 @@
     <col min="1" max="1" width="10.5703125" customWidth="1"/>
     <col min="2" max="2" width="39.5703125" customWidth="1"/>
     <col min="3" max="6" width="10.5703125" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="1"/>
+    <col min="7" max="7" width="11.42578125" style="2"/>
     <col min="8" max="1019" width="10.5703125" customWidth="1"/>
     <col min="1020" max="1025" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="I2" s="12" t="s">
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="I2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="4">
         <v>31.6</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="5">
         <v>30.85</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="5">
         <v>30.67</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="5">
         <v>31.34</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="6">
         <f>AVERAGE(C5:F5)</f>
         <v>31.115000000000002</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="4">
         <v>33.619999999999997</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="5">
         <v>32.299999999999997</v>
       </c>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="5">
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="6">
         <f>AVERAGE(I5:L5)</f>
         <v>32.959999999999994</v>
       </c>
@@ -1228,67 +1228,67 @@
       <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="10">
         <v>3.33</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="11">
         <v>3.23</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="11">
         <v>3.16</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="11">
         <v>3.42</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="12">
         <f>AVERAGE(C6:F6)</f>
         <v>3.2850000000000001</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="10">
         <v>0.8</v>
       </c>
-      <c r="J6" s="10">
+      <c r="J6" s="11">
         <v>0.86</v>
       </c>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="11">
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="12">
         <f>AVERAGE(I6:L6)</f>
         <v>0.83000000000000007</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="4">
         <v>2.78</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="5">
         <v>2.9769999999999999</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="5">
         <v>2.57</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="5">
+      <c r="F9" s="5"/>
+      <c r="G9" s="6">
         <f>AVERAGE(C9:F9)</f>
         <v>2.7756666666666665</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="4">
         <v>3.4</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="5">
         <v>3.6</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="5">
         <v>3.56</v>
       </c>
-      <c r="L9" s="4"/>
-      <c r="M9" s="5">
+      <c r="L9" s="5"/>
+      <c r="M9" s="6">
         <f>AVERAGE(I9:L9)</f>
         <v>3.52</v>
       </c>
@@ -1297,31 +1297,31 @@
       <c r="B10" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="10">
         <v>0.2</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="11">
         <v>0.22500000000000001</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="11">
         <v>0.20499999999999999</v>
       </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="11">
+      <c r="F10" s="11"/>
+      <c r="G10" s="12">
         <f>AVERAGE(C10:F10)</f>
         <v>0.21</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="10">
         <v>0.09</v>
       </c>
-      <c r="J10" s="10">
+      <c r="J10" s="11">
         <v>0.09</v>
       </c>
-      <c r="K10" s="10">
+      <c r="K10" s="11">
         <v>0.09</v>
       </c>
-      <c r="L10" s="10"/>
-      <c r="M10" s="11">
+      <c r="L10" s="11"/>
+      <c r="M10" s="12">
         <f>AVERAGE(I10:L10)</f>
         <v>9.0000000000000011E-2</v>
       </c>
@@ -1341,7 +1341,7 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1349,66 +1349,66 @@
     <col min="1" max="1" width="10.5703125" customWidth="1"/>
     <col min="2" max="2" width="39.5703125" customWidth="1"/>
     <col min="3" max="6" width="10.5703125" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="1"/>
-    <col min="8" max="1013" width="10.5703125" customWidth="1"/>
-    <col min="1014" max="1019" width="9.140625" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="2"/>
+    <col min="8" max="1019" width="10.5703125" customWidth="1"/>
+    <col min="1020" max="1025" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="I2" s="12" t="s">
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="I2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="3">
-        <v>91</v>
-      </c>
-      <c r="D5" s="4">
-        <v>88</v>
-      </c>
-      <c r="E5" s="4">
-        <v>90</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="5">
+      <c r="C5" s="4">
+        <v>87.6</v>
+      </c>
+      <c r="D5" s="5">
+        <v>89.5</v>
+      </c>
+      <c r="E5" s="5">
+        <v>90.4</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="6">
         <f>AVERAGE(C5:F5)</f>
-        <v>89.666666666666671</v>
-      </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="5" t="e">
+        <v>89.166666666666671</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="6" t="e">
         <f>AVERAGE(I5:L5)</f>
         <v>#DIV/0!</v>
       </c>
@@ -1417,61 +1417,55 @@
       <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="10">
+        <v>12.9</v>
+      </c>
+      <c r="D6" s="11">
         <v>12.3</v>
       </c>
-      <c r="D6" s="10">
-        <v>12.5</v>
-      </c>
-      <c r="E6" s="10">
-        <v>12.7</v>
-      </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="11">
+      <c r="E6" s="11">
+        <v>13.7</v>
+      </c>
+      <c r="F6" s="11"/>
+      <c r="G6" s="12">
         <f>AVERAGE(C6:F6)</f>
-        <v>12.5</v>
-      </c>
-      <c r="I6" s="9"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="11" t="e">
+        <v>12.966666666666669</v>
+      </c>
+      <c r="I6" s="10"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="12" t="e">
         <f>AVERAGE(I6:L6)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G7"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G8"/>
-    </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="3">
-        <v>24</v>
-      </c>
-      <c r="D9" s="4">
-        <v>19</v>
-      </c>
-      <c r="E9" s="4">
-        <v>26</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="5">
+      <c r="C9" s="4">
+        <v>23</v>
+      </c>
+      <c r="D9" s="5">
+        <v>22.09</v>
+      </c>
+      <c r="E9" s="5">
+        <v>22.29</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="6">
         <f>AVERAGE(C9:F9)</f>
-        <v>23</v>
-      </c>
-      <c r="I9" s="3"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="5" t="e">
+        <v>22.459999999999997</v>
+      </c>
+      <c r="I9" s="4"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="6" t="e">
         <f>AVERAGE(I9:L9)</f>
         <v>#DIV/0!</v>
       </c>
@@ -1480,25 +1474,25 @@
       <c r="B10" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="9">
-        <v>0.7</v>
-      </c>
-      <c r="D10" s="10">
-        <v>0.7</v>
-      </c>
-      <c r="E10" s="10">
-        <v>0.64</v>
-      </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="11">
+      <c r="C10" s="10">
+        <v>0.93</v>
+      </c>
+      <c r="D10" s="11">
+        <v>0.65</v>
+      </c>
+      <c r="E10" s="11">
+        <v>0.73399999999999999</v>
+      </c>
+      <c r="F10" s="11"/>
+      <c r="G10" s="12">
         <f>AVERAGE(C10:F10)</f>
-        <v>0.68</v>
-      </c>
-      <c r="I10" s="9"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="11" t="e">
+        <v>0.77133333333333332</v>
+      </c>
+      <c r="I10" s="10"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="12" t="e">
         <f>AVERAGE(I10:L10)</f>
         <v>#DIV/0!</v>
       </c>

--- a/EntityTest/perftest.xlsx
+++ b/EntityTest/perftest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lobedama\Meins\Source\EntityTest\EntityTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88699E1C-E7F6-4F43-9BCC-1BBEA08211E5}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED1D056D-8B7B-4A3E-A758-B616ABCD747C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
   <si>
     <t>one big vector</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>BoundingBox Relative</t>
+  </si>
+  <si>
+    <t>BoundingBox Absolute Optimized</t>
   </si>
 </sst>
 </file>
@@ -1338,10 +1341,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECBF6A9C-1244-4E17-A410-707F47E5F820}">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1354,8 +1357,8 @@
     <col min="1020" max="1025" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="1" t="s">
         <v>14</v>
       </c>
@@ -1364,14 +1367,21 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="I2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -1382,8 +1392,13 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -1412,8 +1427,16 @@
         <f>AVERAGE(I5:L5)</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O5" s="4"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="6" t="e">
+        <f>AVERAGE(O5:R5)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>13</v>
       </c>
@@ -1439,8 +1462,16 @@
         <f>AVERAGE(I6:L6)</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O6" s="10"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="12" t="e">
+        <f>AVERAGE(O6:R6)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
@@ -1469,8 +1500,16 @@
         <f>AVERAGE(I9:L9)</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O9" s="4"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="6" t="e">
+        <f>AVERAGE(O9:R9)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>13</v>
       </c>
@@ -1496,11 +1535,20 @@
         <f>AVERAGE(I10:L10)</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="O10" s="10"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="12" t="e">
+        <f>AVERAGE(O10:R10)</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="I2:M2"/>
+    <mergeCell ref="O2:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/EntityTest/perftest.xlsx
+++ b/EntityTest/perftest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lobedama\Meins\Source\EntityTest\EntityTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED1D056D-8B7B-4A3E-A758-B616ABCD747C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B19AA35B-DEEC-4BBD-B270-AA071A5865BF}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="16">
   <si>
     <t>one big vector</t>
   </si>
@@ -80,9 +80,6 @@
   </si>
   <si>
     <t>BoundingBox Relative</t>
-  </si>
-  <si>
-    <t>BoundingBox Absolute Optimized</t>
   </si>
 </sst>
 </file>
@@ -223,9 +220,6 @@
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -239,6 +233,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -564,100 +561,100 @@
     <col min="1" max="1" width="10.5703125" customWidth="1"/>
     <col min="2" max="2" width="39.5703125" customWidth="1"/>
     <col min="3" max="6" width="10.5703125" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="2"/>
+    <col min="7" max="7" width="11.42578125" style="1"/>
     <col min="8" max="1025" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="I2" s="1" t="s">
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="I2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="O2" s="1" t="s">
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="O2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>157.7619</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>162.51060000000001</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>166.42259999999999</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <v>168.07169999999999</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="5">
         <f>AVERAGE(C5:F5)</f>
         <v>163.6917</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="3">
         <v>160.5342</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="4">
         <v>180.1678</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="4">
         <v>163.33320000000001</v>
       </c>
-      <c r="L5" s="5"/>
-      <c r="M5" s="6">
+      <c r="L5" s="4"/>
+      <c r="M5" s="5">
         <f>AVERAGE(I5:L5)</f>
         <v>168.01173333333335</v>
       </c>
-      <c r="O5" s="4">
+      <c r="O5" s="3">
         <v>166.5318</v>
       </c>
-      <c r="P5" s="5">
+      <c r="P5" s="4">
         <v>175.91</v>
       </c>
-      <c r="Q5" s="5">
+      <c r="Q5" s="4">
         <v>170.76769999999999</v>
       </c>
-      <c r="R5" s="5">
+      <c r="R5" s="4">
         <v>166.7098</v>
       </c>
-      <c r="S5" s="6">
+      <c r="S5" s="5">
         <f>AVERAGE(O5:R5)</f>
         <v>169.97982499999998</v>
       </c>
@@ -666,49 +663,49 @@
       <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <v>1.4040999999999999</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="7">
         <v>1.3934</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="7">
         <v>1.4028</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="7">
         <v>1.3969</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="8">
         <f>AVERAGE(C6:F6)</f>
         <v>1.3993000000000002</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="6">
         <v>1.7139</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J6" s="7">
         <v>1.9403999999999999</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K6" s="7">
         <v>1.8997999999999999</v>
       </c>
-      <c r="L6" s="8"/>
-      <c r="M6" s="9">
+      <c r="L6" s="7"/>
+      <c r="M6" s="8">
         <f>AVERAGE(I6:L6)</f>
         <v>1.8513666666666666</v>
       </c>
-      <c r="O6" s="7">
+      <c r="O6" s="6">
         <v>1.3107</v>
       </c>
-      <c r="P6" s="8">
+      <c r="P6" s="7">
         <v>2.1427</v>
       </c>
-      <c r="Q6" s="8">
+      <c r="Q6" s="7">
         <v>1.3743000000000001</v>
       </c>
-      <c r="R6" s="8">
+      <c r="R6" s="7">
         <v>1.2334000000000001</v>
       </c>
-      <c r="S6" s="9">
+      <c r="S6" s="8">
         <f>AVERAGE(O6:R6)</f>
         <v>1.5152749999999999</v>
       </c>
@@ -717,49 +714,49 @@
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="6">
         <v>3.4948000000000001</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="7">
         <v>3.1926999999999999</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="7">
         <v>3.13</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="7">
         <v>3.6112000000000002</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="8">
         <f>AVERAGE(C7:F7)</f>
         <v>3.3571749999999998</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="6">
         <v>3.4422999999999999</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="7">
         <v>4.0140000000000002</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="7">
         <v>4.2487000000000004</v>
       </c>
-      <c r="L7" s="8"/>
-      <c r="M7" s="9">
+      <c r="L7" s="7"/>
+      <c r="M7" s="8">
         <f>AVERAGE(I7:L7)</f>
         <v>3.9016666666666673</v>
       </c>
-      <c r="O7" s="7">
+      <c r="O7" s="6">
         <v>2.9794</v>
       </c>
-      <c r="P7" s="8">
+      <c r="P7" s="7">
         <v>3.2784</v>
       </c>
-      <c r="Q7" s="8">
+      <c r="Q7" s="7">
         <v>3.1785999999999999</v>
       </c>
-      <c r="R7" s="8">
+      <c r="R7" s="7">
         <v>3.3523999999999998</v>
       </c>
-      <c r="S7" s="9">
+      <c r="S7" s="8">
         <f>AVERAGE(O7:R7)</f>
         <v>3.1971999999999996</v>
       </c>
@@ -768,49 +765,49 @@
       <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="6">
         <v>113.1241</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="7">
         <v>114.1404</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="7">
         <v>111.9285</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="7">
         <v>114.68429999999999</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="8">
         <f>AVERAGE(C8:F8)</f>
         <v>113.469325</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="6">
         <v>154.3081</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J8" s="7">
         <v>144.96809999999999</v>
       </c>
-      <c r="K8" s="8">
+      <c r="K8" s="7">
         <v>148.25040000000001</v>
       </c>
-      <c r="L8" s="8"/>
-      <c r="M8" s="9">
+      <c r="L8" s="7"/>
+      <c r="M8" s="8">
         <f>AVERAGE(I8:L8)</f>
         <v>149.17553333333333</v>
       </c>
-      <c r="O8" s="7">
+      <c r="O8" s="6">
         <v>102.8647</v>
       </c>
-      <c r="P8" s="8">
+      <c r="P8" s="7">
         <v>104.4657</v>
       </c>
-      <c r="Q8" s="8">
+      <c r="Q8" s="7">
         <v>102.005</v>
       </c>
-      <c r="R8" s="8">
+      <c r="R8" s="7">
         <v>104.4804</v>
       </c>
-      <c r="S8" s="9">
+      <c r="S8" s="8">
         <f>AVERAGE(O8:R8)</f>
         <v>103.45394999999999</v>
       </c>
@@ -819,105 +816,105 @@
       <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="9">
         <v>390.39330000000001</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="10">
         <v>383.66489999999999</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="10">
         <v>394.25279999999998</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="10">
         <v>374.78480000000002</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="11">
         <f>AVERAGE(C9:F9)</f>
         <v>385.77395000000001</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I9" s="9">
         <v>465.13940000000002</v>
       </c>
-      <c r="J9" s="11">
+      <c r="J9" s="10">
         <v>466.0222</v>
       </c>
-      <c r="K9" s="11">
+      <c r="K9" s="10">
         <v>467.14600000000002</v>
       </c>
-      <c r="L9" s="11"/>
-      <c r="M9" s="12">
+      <c r="L9" s="10"/>
+      <c r="M9" s="11">
         <f>AVERAGE(I9:L9)</f>
         <v>466.10253333333338</v>
       </c>
-      <c r="O9" s="10">
+      <c r="O9" s="9">
         <v>304.68599999999998</v>
       </c>
-      <c r="P9" s="11">
+      <c r="P9" s="10">
         <v>302.75659999999999</v>
       </c>
-      <c r="Q9" s="11">
+      <c r="Q9" s="10">
         <v>302.67930000000001</v>
       </c>
-      <c r="R9" s="11">
+      <c r="R9" s="10">
         <v>308.26870000000002</v>
       </c>
-      <c r="S9" s="12">
+      <c r="S9" s="11">
         <f>AVERAGE(O9:R9)</f>
         <v>304.59764999999999</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>5.3160999999999996</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <v>4.4263000000000003</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="4">
         <v>4.0811000000000002</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="4">
         <v>4.718</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="5">
         <f>AVERAGE(C12:F12)</f>
         <v>4.6353749999999998</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="3">
         <v>3.3616000000000001</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="4">
         <v>3.403</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12" s="4">
         <v>4.7798999999999996</v>
       </c>
-      <c r="L12" s="5">
+      <c r="L12" s="4">
         <v>3.9466000000000001</v>
       </c>
-      <c r="M12" s="6">
+      <c r="M12" s="5">
         <f>AVERAGE(I12:L12)</f>
         <v>3.8727749999999999</v>
       </c>
-      <c r="O12" s="4">
+      <c r="O12" s="3">
         <v>2.8919000000000001</v>
       </c>
-      <c r="P12" s="5">
+      <c r="P12" s="4">
         <v>15.2219</v>
       </c>
-      <c r="Q12" s="5">
+      <c r="Q12" s="4">
         <v>3.6556999999999999</v>
       </c>
-      <c r="R12" s="5">
+      <c r="R12" s="4">
         <v>7.53</v>
       </c>
-      <c r="S12" s="6">
+      <c r="S12" s="5">
         <f>AVERAGE(O12:R12)</f>
         <v>7.3248750000000005</v>
       </c>
@@ -926,51 +923,51 @@
       <c r="B13" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="6">
         <v>5.5999999999999999E-3</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="7">
         <v>5.1000000000000004E-3</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="7">
         <v>4.7000000000000002E-3</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="7">
         <v>5.5999999999999999E-3</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="8">
         <f>AVERAGE(C13:F13)</f>
         <v>5.2500000000000003E-3</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="6">
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="J13" s="8">
+      <c r="J13" s="7">
         <v>4.7000000000000002E-3</v>
       </c>
-      <c r="K13" s="8">
+      <c r="K13" s="7">
         <v>4.7000000000000002E-3</v>
       </c>
-      <c r="L13" s="8">
+      <c r="L13" s="7">
         <v>4.7000000000000002E-3</v>
       </c>
-      <c r="M13" s="9">
+      <c r="M13" s="8">
         <f>AVERAGE(I13:L13)</f>
         <v>4.8249999999999994E-3</v>
       </c>
-      <c r="O13" s="7">
+      <c r="O13" s="6">
         <v>0</v>
       </c>
-      <c r="P13" s="8">
+      <c r="P13" s="7">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="Q13" s="8">
+      <c r="Q13" s="7">
         <v>0</v>
       </c>
-      <c r="R13" s="8">
+      <c r="R13" s="7">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="S13" s="9">
+      <c r="S13" s="8">
         <f>AVERAGE(O13:R13)</f>
         <v>3.2499999999999999E-4</v>
       </c>
@@ -979,51 +976,51 @@
       <c r="B14" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="6">
         <v>2.3099999999999999E-2</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="7">
         <v>2.35E-2</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="7">
         <v>2.2700000000000001E-2</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="7">
         <v>2.2599999999999999E-2</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="8">
         <f>AVERAGE(C14:F14)</f>
         <v>2.2974999999999999E-2</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="6">
         <v>1.84E-2</v>
       </c>
-      <c r="J14" s="8">
+      <c r="J14" s="7">
         <v>2.0500000000000001E-2</v>
       </c>
-      <c r="K14" s="8">
+      <c r="K14" s="7">
         <v>1.9199999999999998E-2</v>
       </c>
-      <c r="L14" s="8">
+      <c r="L14" s="7">
         <v>1.9199999999999998E-2</v>
       </c>
-      <c r="M14" s="9">
+      <c r="M14" s="8">
         <f>AVERAGE(I14:L14)</f>
         <v>1.9324999999999998E-2</v>
       </c>
-      <c r="O14" s="7">
+      <c r="O14" s="6">
         <v>1.24E-2</v>
       </c>
-      <c r="P14" s="8">
+      <c r="P14" s="7">
         <v>3.2500000000000001E-2</v>
       </c>
-      <c r="Q14" s="8">
+      <c r="Q14" s="7">
         <v>2.2200000000000001E-2</v>
       </c>
-      <c r="R14" s="8">
+      <c r="R14" s="7">
         <v>2.01E-2</v>
       </c>
-      <c r="S14" s="9">
+      <c r="S14" s="8">
         <f>AVERAGE(O14:R14)</f>
         <v>2.18E-2</v>
       </c>
@@ -1032,51 +1029,51 @@
       <c r="B15" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="6">
         <v>0.87719999999999998</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="7">
         <v>1.1323000000000001</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="7">
         <v>1.0965</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="7">
         <v>1.1067</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="8">
         <f>AVERAGE(C15:F15)</f>
         <v>1.053175</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="6">
         <v>1.4480999999999999</v>
       </c>
-      <c r="J15" s="8">
+      <c r="J15" s="7">
         <v>1.3515999999999999</v>
       </c>
-      <c r="K15" s="8">
+      <c r="K15" s="7">
         <v>1.4434</v>
       </c>
-      <c r="L15" s="8">
+      <c r="L15" s="7">
         <v>1.2049000000000001</v>
       </c>
-      <c r="M15" s="9">
+      <c r="M15" s="8">
         <f>AVERAGE(I15:L15)</f>
         <v>1.3620000000000001</v>
       </c>
-      <c r="O15" s="7">
+      <c r="O15" s="6">
         <v>0.32850000000000001</v>
       </c>
-      <c r="P15" s="8">
+      <c r="P15" s="7">
         <v>1.0549999999999999</v>
       </c>
-      <c r="Q15" s="8">
+      <c r="Q15" s="7">
         <v>0.4002</v>
       </c>
-      <c r="R15" s="8">
+      <c r="R15" s="7">
         <v>0.73119999999999996</v>
       </c>
-      <c r="S15" s="9">
+      <c r="S15" s="8">
         <f>AVERAGE(O15:R15)</f>
         <v>0.62872499999999998</v>
       </c>
@@ -1085,51 +1082,51 @@
       <c r="B16" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="9">
         <v>3.4116</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="10">
         <v>3.31</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="10">
         <v>2.6295000000000002</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="10">
         <v>3.6781999999999999</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G16" s="11">
         <f>AVERAGE(C16:F16)</f>
         <v>3.2573250000000002</v>
       </c>
-      <c r="I16" s="10">
+      <c r="I16" s="9">
         <v>3.4986000000000002</v>
       </c>
-      <c r="J16" s="11">
+      <c r="J16" s="10">
         <v>2.2847</v>
       </c>
-      <c r="K16" s="11">
+      <c r="K16" s="10">
         <v>2.3380999999999998</v>
       </c>
-      <c r="L16" s="11">
+      <c r="L16" s="10">
         <v>3.9249000000000001</v>
       </c>
-      <c r="M16" s="12">
+      <c r="M16" s="11">
         <f>AVERAGE(I16:L16)</f>
         <v>3.0115750000000006</v>
       </c>
-      <c r="O16" s="10">
+      <c r="O16" s="9">
         <v>0.98850000000000005</v>
       </c>
-      <c r="P16" s="11">
+      <c r="P16" s="10">
         <v>1.5653999999999999</v>
       </c>
-      <c r="Q16" s="11">
+      <c r="Q16" s="10">
         <v>1.1186</v>
       </c>
-      <c r="R16" s="11">
+      <c r="R16" s="10">
         <v>1.0674999999999999</v>
       </c>
-      <c r="S16" s="12">
+      <c r="S16" s="11">
         <f>AVERAGE(O16:R16)</f>
         <v>1.1850000000000001</v>
       </c>
@@ -1158,71 +1155,71 @@
     <col min="1" max="1" width="10.5703125" customWidth="1"/>
     <col min="2" max="2" width="39.5703125" customWidth="1"/>
     <col min="3" max="6" width="10.5703125" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="2"/>
+    <col min="7" max="7" width="11.42578125" style="1"/>
     <col min="8" max="1019" width="10.5703125" customWidth="1"/>
     <col min="1020" max="1025" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="I2" s="1" t="s">
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="I2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>31.6</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>30.85</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>30.67</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <v>31.34</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="5">
         <f>AVERAGE(C5:F5)</f>
         <v>31.115000000000002</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="3">
         <v>33.619999999999997</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="4">
         <v>32.299999999999997</v>
       </c>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="6">
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="5">
         <f>AVERAGE(I5:L5)</f>
         <v>32.959999999999994</v>
       </c>
@@ -1231,67 +1228,67 @@
       <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="9">
         <v>3.33</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="10">
         <v>3.23</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="10">
         <v>3.16</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="10">
         <v>3.42</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="11">
         <f>AVERAGE(C6:F6)</f>
         <v>3.2850000000000001</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="9">
         <v>0.8</v>
       </c>
-      <c r="J6" s="11">
+      <c r="J6" s="10">
         <v>0.86</v>
       </c>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="12">
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="11">
         <f>AVERAGE(I6:L6)</f>
         <v>0.83000000000000007</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>2.78</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <v>2.9769999999999999</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <v>2.57</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="6">
+      <c r="F9" s="4"/>
+      <c r="G9" s="5">
         <f>AVERAGE(C9:F9)</f>
         <v>2.7756666666666665</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="3">
         <v>3.4</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="4">
         <v>3.6</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="4">
         <v>3.56</v>
       </c>
-      <c r="L9" s="5"/>
-      <c r="M9" s="6">
+      <c r="L9" s="4"/>
+      <c r="M9" s="5">
         <f>AVERAGE(I9:L9)</f>
         <v>3.52</v>
       </c>
@@ -1300,31 +1297,31 @@
       <c r="B10" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="9">
         <v>0.2</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="10">
         <v>0.22500000000000001</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="10">
         <v>0.20499999999999999</v>
       </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="12">
+      <c r="F10" s="10"/>
+      <c r="G10" s="11">
         <f>AVERAGE(C10:F10)</f>
         <v>0.21</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I10" s="9">
         <v>0.09</v>
       </c>
-      <c r="J10" s="11">
+      <c r="J10" s="10">
         <v>0.09</v>
       </c>
-      <c r="K10" s="11">
+      <c r="K10" s="10">
         <v>0.09</v>
       </c>
-      <c r="L10" s="11"/>
-      <c r="M10" s="12">
+      <c r="L10" s="10"/>
+      <c r="M10" s="11">
         <f>AVERAGE(I10:L10)</f>
         <v>9.0000000000000011E-2</v>
       </c>
@@ -1341,10 +1338,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECBF6A9C-1244-4E17-A410-707F47E5F820}">
-  <dimension ref="A1:S10"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1352,203 +1349,164 @@
     <col min="1" max="1" width="10.5703125" customWidth="1"/>
     <col min="2" max="2" width="39.5703125" customWidth="1"/>
     <col min="3" max="6" width="10.5703125" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="2"/>
-    <col min="8" max="1019" width="10.5703125" customWidth="1"/>
-    <col min="1020" max="1025" width="9.140625" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="1"/>
+    <col min="8" max="1013" width="10.5703125" customWidth="1"/>
+    <col min="1014" max="1019" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="1" t="s">
+    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="I2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="O2" s="1" t="s">
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="I2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="4">
-        <v>87.6</v>
-      </c>
-      <c r="D5" s="5">
-        <v>89.5</v>
-      </c>
-      <c r="E5" s="5">
-        <v>90.4</v>
-      </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="6">
+      <c r="C5" s="3">
+        <v>91</v>
+      </c>
+      <c r="D5" s="4">
+        <v>88</v>
+      </c>
+      <c r="E5" s="4">
+        <v>90</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="5">
         <f>AVERAGE(C5:F5)</f>
-        <v>89.166666666666671</v>
-      </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="6" t="e">
+        <v>89.666666666666671</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="5" t="e">
         <f>AVERAGE(I5:L5)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O5" s="4"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="6" t="e">
-        <f>AVERAGE(O5:R5)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="10">
-        <v>12.9</v>
-      </c>
-      <c r="D6" s="11">
+      <c r="C6" s="9">
         <v>12.3</v>
       </c>
-      <c r="E6" s="11">
-        <v>13.7</v>
-      </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="12">
+      <c r="D6" s="10">
+        <v>12.5</v>
+      </c>
+      <c r="E6" s="10">
+        <v>12.7</v>
+      </c>
+      <c r="F6" s="10"/>
+      <c r="G6" s="11">
         <f>AVERAGE(C6:F6)</f>
-        <v>12.966666666666669</v>
-      </c>
-      <c r="I6" s="10"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="12" t="e">
+        <v>12.5</v>
+      </c>
+      <c r="I6" s="9"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="11" t="e">
         <f>AVERAGE(I6:L6)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O6" s="10"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="12" t="e">
-        <f>AVERAGE(O6:R6)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G7"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G8"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
+        <v>24</v>
+      </c>
+      <c r="D9" s="4">
+        <v>19</v>
+      </c>
+      <c r="E9" s="4">
+        <v>26</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="5">
+        <f>AVERAGE(C9:F9)</f>
         <v>23</v>
       </c>
-      <c r="D9" s="5">
-        <v>22.09</v>
-      </c>
-      <c r="E9" s="5">
-        <v>22.29</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="6">
-        <f>AVERAGE(C9:F9)</f>
-        <v>22.459999999999997</v>
-      </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="6" t="e">
+      <c r="I9" s="3"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="5" t="e">
         <f>AVERAGE(I9:L9)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O9" s="4"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="6" t="e">
-        <f>AVERAGE(O9:R9)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="10">
-        <v>0.93</v>
-      </c>
-      <c r="D10" s="11">
-        <v>0.65</v>
-      </c>
-      <c r="E10" s="11">
-        <v>0.73399999999999999</v>
-      </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="12">
+      <c r="C10" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="D10" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="E10" s="10">
+        <v>0.64</v>
+      </c>
+      <c r="F10" s="10"/>
+      <c r="G10" s="11">
         <f>AVERAGE(C10:F10)</f>
-        <v>0.77133333333333332</v>
-      </c>
-      <c r="I10" s="10"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="12" t="e">
+        <v>0.68</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="11" t="e">
         <f>AVERAGE(I10:L10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O10" s="10"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="12" t="e">
-        <f>AVERAGE(O10:R10)</f>
-        <v>#DIV/0!</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="I2:M2"/>
-    <mergeCell ref="O2:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/EntityTest/perftest.xlsx
+++ b/EntityTest/perftest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lobedama\Meins\Source\EntityTest\EntityTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B19AA35B-DEEC-4BBD-B270-AA071A5865BF}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB192FD9-A5B6-480E-8BFB-6F5288D5F579}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1341,7 +1341,7 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1467,13 +1467,19 @@
         <f>AVERAGE(C9:F9)</f>
         <v>23</v>
       </c>
-      <c r="I9" s="3"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
+      <c r="I9" s="3">
+        <v>22</v>
+      </c>
+      <c r="J9" s="4">
+        <v>20</v>
+      </c>
+      <c r="K9" s="4">
+        <v>22</v>
+      </c>
       <c r="L9" s="4"/>
-      <c r="M9" s="5" t="e">
+      <c r="M9" s="5">
         <f>AVERAGE(I9:L9)</f>
-        <v>#DIV/0!</v>
+        <v>21.333333333333332</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -1494,13 +1500,19 @@
         <f>AVERAGE(C10:F10)</f>
         <v>0.68</v>
       </c>
-      <c r="I10" s="9"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
+      <c r="I10" s="9">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="J10" s="10">
+        <v>0.61</v>
+      </c>
+      <c r="K10" s="10">
+        <v>0.56999999999999995</v>
+      </c>
       <c r="L10" s="10"/>
-      <c r="M10" s="11" t="e">
+      <c r="M10" s="11">
         <f>AVERAGE(I10:L10)</f>
-        <v>#DIV/0!</v>
+        <v>0.57999999999999996</v>
       </c>
     </row>
   </sheetData>
